--- a/CS231n.xlsx
+++ b/CS231n.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="4950" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="4950" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Overall process" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Outline" sheetId="5" r:id="rId4"/>
     <sheet name="Neural Networks" sheetId="6" r:id="rId5"/>
     <sheet name="CNN" sheetId="7" r:id="rId6"/>
+    <sheet name="RNN" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
   <si>
     <t>i = 1,2,3,…,N</t>
   </si>
@@ -274,12 +275,481 @@
   <si>
     <t>To prevent losing too much info caused by pooling, the depth of input layer needs to be enlarged, and inception layer could achieve this purpose with fewer parameter (less computation)</t>
   </si>
+  <si>
+    <t>http://karpathy.github.io/2015/05/21/rnn-effectiveness/</t>
+  </si>
+  <si>
+    <t>Andrej Kapathy's blog</t>
+  </si>
+  <si>
+    <t>我</t>
+  </si>
+  <si>
+    <t>爱</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>yan</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>shi</t>
+  </si>
+  <si>
+    <t>zhen</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>彦</t>
+  </si>
+  <si>
+    <t>祖</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>真</t>
+  </si>
+  <si>
+    <t>的</t>
+  </si>
+  <si>
+    <t>很</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Pinyin</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Vocabulary of V words (V = 9)</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Vocabulary weight matrix (V = 9, D = 4)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">W </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> np</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>linspace(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, num</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>D)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF666666"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>reshape(V, D)</t>
+    </r>
+  </si>
+  <si>
+    <t>Word embedding layer</t>
+  </si>
+  <si>
+    <t>Hidden layer</t>
+  </si>
+  <si>
+    <t>Output layer</t>
+  </si>
+  <si>
+    <t>Target word</t>
+  </si>
+  <si>
+    <t>Input word</t>
+  </si>
+  <si>
+    <t>(N, T, D)</t>
+  </si>
+  <si>
+    <t>(N, T)</t>
+  </si>
+  <si>
+    <t>(N, T, H)</t>
+  </si>
+  <si>
+    <t>(N, T, V)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">next_h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> np.tanh(np.dot(x, Wx) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> np.dot(prev_h, Wh) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> b)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://github.com/WangYuanMike/CS231n</t>
+  </si>
+  <si>
+    <t>My github</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> W[x,:]</t>
+    </r>
+  </si>
+  <si>
+    <t>X (N, T)</t>
+  </si>
+  <si>
+    <t>W (V, D)</t>
+  </si>
+  <si>
+    <t>out (N, T, D)</t>
+  </si>
+  <si>
+    <t>X (N, D)</t>
+  </si>
+  <si>
+    <t>prev_h (N, H)</t>
+  </si>
+  <si>
+    <t>Wx (D, H)</t>
+  </si>
+  <si>
+    <t>Wh (H, H)</t>
+  </si>
+  <si>
+    <t>b (H, )</t>
+  </si>
+  <si>
+    <t>RNN step forward:</t>
+  </si>
+  <si>
+    <t>affline + Softmax loss</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> x.reshape(N </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> T, H).dot(w).reshape(N, T, V) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> b</t>
+    </r>
+  </si>
+  <si>
+    <t>W (H, V)</t>
+  </si>
+  <si>
+    <t>x (N, T, H)</t>
+  </si>
+  <si>
+    <t>w (N, H, V)</t>
+  </si>
+  <si>
+    <t>b (V, )</t>
+  </si>
+  <si>
+    <t>out (N, T, V)</t>
+  </si>
+  <si>
+    <t>D = 4</t>
+  </si>
+  <si>
+    <t>H = 3</t>
+  </si>
+  <si>
+    <t>V = 9</t>
+  </si>
+  <si>
+    <t>T = 13</t>
+  </si>
+  <si>
+    <t>W_proj (X, H)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +801,77 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD73A49"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -358,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -381,11 +922,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,16 +975,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCECFF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99CC"/>
     </mruColors>
   </colors>
@@ -14448,67 +15052,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Picture 132" descr="吐槽大会第四期唐国强自带鬼畜 王刚吐槽蓝翔挖掘机超圈粉">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA4C4BA-C948-42BA-B2AE-FD710657FA4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9258300" y="2447925"/>
-          <a:ext cx="5153025" cy="3552825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16536,6 +17079,4157 @@
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC7C965-079C-4006-869C-12F3F4CE8472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="5867400"/>
+          <a:ext cx="1009650" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-2.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.0</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051A699A-BFD8-45CA-B2BF-F78DCB4BF2A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="7743825"/>
+          <a:ext cx="1104900" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.457 0.486 0.514 0.543 </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B497678-A608-4C36-B56C-33A1788B0951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="11239499"/>
+          <a:ext cx="1152525" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D472234-DAB7-4C9C-8B68-DA7751D950DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="11239499"/>
+          <a:ext cx="1152525" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>爱</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F296BA2-1DD5-405C-BB0A-79639F285276}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="11229974"/>
+          <a:ext cx="1152525" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>吴</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7050BCD-33DF-498A-80FA-19306EABD6F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12592050" y="1952624"/>
+          <a:ext cx="1152525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>祖</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68204803-8DCB-4C03-B7FF-8E6640F94FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="1943099"/>
+          <a:ext cx="1152525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>彦</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B94FB9-8CB9-49A0-80F0-FA49362D130D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="1943100"/>
+          <a:ext cx="1152525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>爱</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81C51730-F5AB-4B75-858C-E8AC81852DC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9153525" y="1952625"/>
+          <a:ext cx="1152525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>吴</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344F894E-2605-4C77-9421-8A76A5D010FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="12668250"/>
+          <a:ext cx="8982075" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;START&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我爱吴彦祖</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;END&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;NULL&gt;&lt;NULL&gt;&lt;NULL&gt;&lt;NULL&gt;&lt;NULL&gt;&lt;NULL&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EEEC7D-BD81-4A72-9851-1D3215A068C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="13487399"/>
+          <a:ext cx="8991600" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;START&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>我是真的真的很爱吴彦祖</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;END&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1226F035-A828-497A-9937-89EE119B7864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="14411324"/>
+          <a:ext cx="8972550" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。。。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这是为了照顾女性观众，吴彦祖，别误会</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。。。</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle: Rounded Corners 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0899ABAB-7837-4062-AA2F-0A5658CD9076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="7753350"/>
+          <a:ext cx="1104900" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0.000 0.029 0.057 0.086 </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle: Rounded Corners 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCFB8DB-DEE8-42F7-982D-C90691A94B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="7743825"/>
+          <a:ext cx="1104900" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.571 0.600 0.629 0.657 </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle: Rounded Corners 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2241422D-8D8C-44FC-A956-BE3F2BB89346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="7772400"/>
+          <a:ext cx="1104900" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.686 0.714 0.743 0.771 </a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle: Rounded Corners 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154F9F3F-5FE2-4164-A236-E0BF781932AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="2524125"/>
+          <a:ext cx="1009650" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-0.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-0.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>3.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-2.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>2.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle: Rounded Corners 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5472C654-E1FC-4A31-AD87-76975565B4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="2524125"/>
+          <a:ext cx="1009650" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-3.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>1.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.8</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle: Rounded Corners 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F03D5C4-E4F4-48B2-945D-A1A3F7FA5BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="5867400"/>
+          <a:ext cx="1009650" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle: Rounded Corners 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E375BB-84E7-4C32-A68D-C27D875F3544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="5867400"/>
+          <a:ext cx="1009650" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle: Rounded Corners 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{496A8892-D57A-428A-9835-1975DCD33FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="5867400"/>
+          <a:ext cx="1009650" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-2.0</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle: Rounded Corners 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE50507-7305-4E30-80B1-DF453A9BE986}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="2524125"/>
+          <a:ext cx="1009650" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-2.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>4.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>4.0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rectangle: Rounded Corners 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{382EA08D-94E3-4CE0-AD6A-3176AF851601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="2505075"/>
+          <a:ext cx="1009650" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>0.2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-1.8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-3.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>2.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800"/>
+            <a:t>-1.3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.9</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985B4C4C-82FC-4541-AC1D-D57498DDC4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3257550" y="7134225"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671388F4-D77A-4136-A2F8-A2144E6BA3FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3257550" y="5229225"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889CC9BC-3BB4-4D7D-9554-2277B3B672E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="6500813"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F10EBA-8166-48F1-BC7F-7D5BECB3E01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4933950" y="7134225"/>
+          <a:ext cx="0" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CFC9DC-5E7A-4E5A-B409-B4B237A97DA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4933950" y="5229225"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A8CEEB-383C-4620-A95F-5C808EE4747B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="6500813"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F8FA28-A5FA-4F97-AE15-9C5548DD7641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6667500" y="7134225"/>
+          <a:ext cx="0" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6EF0B4-9EED-4C1E-97AE-641EE7C6070B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="6500813"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0BB628-57E7-47B2-829C-56C869FA61A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6667500" y="5229225"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0461E1A5-50FB-41A0-9F91-2559412B3941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="31" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8305800" y="5210175"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0993580C-F489-44A3-B920-53791D21001D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8305800" y="7134225"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle: Rounded Corners 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9619B627-B35F-4FCD-A674-7706BE7A2DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="7934325"/>
+          <a:ext cx="676276" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>h0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle: Rounded Corners 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FCA1A9-FA7F-42C1-90E9-8EB0011EFF68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="8715375"/>
+          <a:ext cx="542925" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA27612-A14D-4A62-810A-85212EEDBB2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5029201" y="7162800"/>
+          <a:ext cx="1381124" cy="1109662"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA42299D-5954-4319-9651-48DA274A2EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5400675" y="7162800"/>
+          <a:ext cx="1009650" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle: Rounded Corners 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DDF9688-BE80-446B-B37C-B07068559EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4190999" y="5772149"/>
+          <a:ext cx="590551" cy="533399"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D4F494-07E2-4782-82AF-F98DE7CB4506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="3"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4781550" y="5876925"/>
+          <a:ext cx="1524000" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Rectangle: Rounded Corners 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF9CBDB-1D88-4B8B-9216-DD933D4FD5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="11229974"/>
+          <a:ext cx="1152525" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;Start&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE2366D-A6EB-4B5E-AD2A-096F72C66267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="7162800"/>
+          <a:ext cx="790575" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Rectangle: Rounded Corners 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31CB602-DE82-41FB-9BC4-B5013F749E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="2971800"/>
+          <a:ext cx="1009650" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>......</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle: Rounded Corners 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D868A8-EB46-4773-A5E7-5552F134BC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="6515100"/>
+          <a:ext cx="1009650" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>......</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5013A734-BC01-40FF-8191-B668844A8066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="0"/>
+          <a:endCxn id="104" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13154025" y="5848350"/>
+          <a:ext cx="0" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rectangle: Rounded Corners 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA29514-9AB1-4486-926C-0B30943EC829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12601575" y="8886825"/>
+          <a:ext cx="1104900" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>......</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Arrow Connector 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718C3D8B-353E-4181-8D59-96A9BD25C2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="0"/>
+          <a:endCxn id="105" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13154025" y="7810500"/>
+          <a:ext cx="0" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Rectangle: Rounded Corners 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677E7BF7-2FB4-4BDA-8ED5-66EEC3C4748B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="11220449"/>
+          <a:ext cx="1152525" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>......</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Rectangle: Rounded Corners 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216FF458-D79D-49B2-976F-05D64BBDBCC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5743575" y="1952625"/>
+          <a:ext cx="1152525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>我</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2800" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rectangle: Rounded Corners 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EB22BC-1518-4E85-A8C8-8152121C9D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192250" y="1933575"/>
+          <a:ext cx="1152525" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;End&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="2400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rectangle: Rounded Corners 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA32A08B-76E1-45BE-9A4F-11475B6E21A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790701" y="7800975"/>
+          <a:ext cx="1104900" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CNN feature</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FD31C2-6A9B-42BB-9A04-07D54705E980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="126" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895601" y="8215313"/>
+          <a:ext cx="1457324" cy="57149"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="Rectangle: Rounded Corners 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B768E6A-4E54-4092-9263-0266CCEAFF6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="8677275"/>
+          <a:ext cx="914400" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b_proj</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B017BE-46C1-438B-85B2-F383FE760BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="131" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3886200" y="8272462"/>
+          <a:ext cx="466725" cy="652463"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -17319,7 +22013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -17530,8 +22224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17545,7 +22239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
@@ -17554,4 +22248,523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B18" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="Z28" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="K29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B30" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B33" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z33" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB34" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA35" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB35" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB36" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB37" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB38" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B42" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD43" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF43" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B44" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="18">
+        <v>2.8571429999999998E-2</v>
+      </c>
+      <c r="AE44" s="18">
+        <v>5.7142859999999997E-2</v>
+      </c>
+      <c r="AF44" s="18">
+        <v>8.5714289999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z45" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA45" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB45" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="18">
+        <v>0.11428571</v>
+      </c>
+      <c r="AD45" s="18">
+        <v>0.14285713999999999</v>
+      </c>
+      <c r="AE45" s="18">
+        <v>0.17142857</v>
+      </c>
+      <c r="AF45" s="18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z46" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA46" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB46" s="17">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="18">
+        <v>0.22857142999999999</v>
+      </c>
+      <c r="AD46" s="18">
+        <v>0.25714285999999997</v>
+      </c>
+      <c r="AE46" s="18">
+        <v>0.28571428999999998</v>
+      </c>
+      <c r="AF46" s="18">
+        <v>0.31428571</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z47" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA47" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB47" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="18">
+        <v>0.34285714</v>
+      </c>
+      <c r="AD47" s="18">
+        <v>0.37142857000000001</v>
+      </c>
+      <c r="AE47" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="AF47" s="18">
+        <v>0.42857142999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA48" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB48" s="17">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="18">
+        <v>0.45714285999999998</v>
+      </c>
+      <c r="AD48" s="18">
+        <v>0.48571428999999999</v>
+      </c>
+      <c r="AE48" s="18">
+        <v>0.51428571000000001</v>
+      </c>
+      <c r="AF48" s="18">
+        <v>0.54285713999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z49" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA49" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB49" s="17">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="18">
+        <v>0.57142857000000002</v>
+      </c>
+      <c r="AD49" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="AE49" s="18">
+        <v>0.62857143000000004</v>
+      </c>
+      <c r="AF49" s="18">
+        <v>0.65714286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B50" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z50" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA50" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB50" s="17">
+        <v>6</v>
+      </c>
+      <c r="AC50" s="18">
+        <v>0.68571428999999995</v>
+      </c>
+      <c r="AD50" s="18">
+        <v>0.71428570999999996</v>
+      </c>
+      <c r="AE50" s="18">
+        <v>0.74285714000000003</v>
+      </c>
+      <c r="AF50" s="18">
+        <v>0.77142856999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z51" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA51" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB51" s="17">
+        <v>7</v>
+      </c>
+      <c r="AC51" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AD51" s="18">
+        <v>0.82857143</v>
+      </c>
+      <c r="AE51" s="18">
+        <v>0.85714285999999995</v>
+      </c>
+      <c r="AF51" s="18">
+        <v>0.88571429000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" ht="21" x14ac:dyDescent="0.35">
+      <c r="Z52" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA52" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB52" s="17">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="18">
+        <v>0.91428571000000003</v>
+      </c>
+      <c r="AD52" s="18">
+        <v>0.94285713999999998</v>
+      </c>
+      <c r="AE52" s="18">
+        <v>0.97142857000000005</v>
+      </c>
+      <c r="AF52" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="Z54" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/CS231n.xlsx
+++ b/CS231n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="4950" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="4950" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overall process" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Neural Networks" sheetId="6" r:id="rId5"/>
     <sheet name="CNN" sheetId="7" r:id="rId6"/>
     <sheet name="RNN" sheetId="8" r:id="rId7"/>
+    <sheet name="LSTM" sheetId="9" r:id="rId8"/>
+    <sheet name="GAN" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>i = 1,2,3,…,N</t>
   </si>
@@ -741,13 +743,34 @@
   <si>
     <t>W_proj (X, H)</t>
   </si>
+  <si>
+    <t>http://colah.github.io/posts/2015-08-Understanding-LSTMs/</t>
+  </si>
+  <si>
+    <t>Colah's blog</t>
+  </si>
+  <si>
+    <t>http://www.deeplearningbook.org/contents/rnn.html</t>
+  </si>
+  <si>
+    <t>Challenge of long term dependency (Ian Goodfellow's deep learning text book)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1406.2661.pdf</t>
+  </si>
+  <si>
+    <t>Ian's GAN paper</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1701.00160.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -991,7 +1014,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -18157,8 +18180,8 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -18179,8 +18202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="7753350"/>
-          <a:ext cx="1104900" cy="1933575"/>
+          <a:off x="8039100" y="8896350"/>
+          <a:ext cx="1104900" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18543,8 +18566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="2524125"/>
-          <a:ext cx="1009650" cy="2705100"/>
+          <a:off x="8086725" y="3000375"/>
+          <a:ext cx="1009650" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18671,8 +18694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="5867400"/>
-          <a:ext cx="1009650" cy="1266825"/>
+          <a:off x="8086725" y="6515100"/>
+          <a:ext cx="1009650" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -19392,8 +19415,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20983,15 +21006,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21006,8 +21029,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790701" y="7800975"/>
-          <a:ext cx="1104900" cy="828675"/>
+          <a:off x="1524000" y="7820025"/>
+          <a:ext cx="1371601" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -21046,7 +21069,34 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>CNN feature</a:t>
+            <a:t>CNN image</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>feature </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(N, X)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21058,13 +21108,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21081,9 +21131,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895601" y="8215313"/>
-          <a:ext cx="1457324" cy="57149"/>
+        <a:xfrm flipV="1">
+          <a:off x="2895601" y="8272462"/>
+          <a:ext cx="1457324" cy="80963"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -21249,6 +21299,1227 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380CBDF9-81AA-40B8-92B4-43033CE9FC7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16106776" y="152398"/>
+          <a:ext cx="8172450" cy="5257801"/>
+          <a:chOff x="16106776" y="152398"/>
+          <a:chExt cx="8172450" cy="5257801"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle: Folded Corner 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCCA8DA9-1348-439F-97FE-DD9C2B1BF310}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16106776" y="152398"/>
+            <a:ext cx="8172450" cy="5257801"/>
+          </a:xfrm>
+          <a:prstGeom prst="foldedCorner">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 10221"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>熟读唐诗三百首，不会作诗也会吟</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" altLang="zh-CN" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="de-DE" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Forward pass</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - word embedding (vocabulary table, vocabulary weight matrix)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - compute activation step by step (so called Recurrent NN)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - all nodes on the same layer share the same weight and bias</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - can be used for image captioning (CNN image features as h0)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - In image caption case, T is the longest caption in training samples</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - In common time series case, T is a fixed number, e.g. T=25</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2) Backward pass</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - Update all weights and bias, including vocabulary weight matrix</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3) Test (Sample)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - No need to do the recurrent computing as in the training phase</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>     - Always sample the word with largest probablity as the input of the next step</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Picture 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087F6907-BABC-4515-820F-3F344F206101}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17828170" y="647700"/>
+            <a:ext cx="3278982" cy="457165"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>225157</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A84953C-30B3-4E39-8C0D-57F3523CFCF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7219950"/>
+          <a:ext cx="11807557" cy="5133317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>557199</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>119613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F01B021-13A6-4364-97A8-D21907A53796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10920399" y="9544051"/>
+          <a:ext cx="7777176" cy="4958312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8228</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>170619</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3C2699-EA8B-4AFC-B0A8-89C73B44BD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="8477250"/>
+          <a:ext cx="10371428" cy="6647619"/>
+          <a:chOff x="0" y="8477250"/>
+          <a:chExt cx="10371428" cy="6647619"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D993CD-8EB9-4431-AD4F-D02B3863F24D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="8477250"/>
+            <a:ext cx="10371428" cy="6647619"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4602A4-6FCB-42F2-B36A-79F9C5043357}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="28575" y="9896475"/>
+            <a:ext cx="10191750" cy="3848100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00">
+              <a:alpha val="20000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560838</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0105FE24-B562-4C17-8DE2-E40CC416091A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1285875"/>
+          <a:ext cx="9095238" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>513219</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66045</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA967A3-5BE9-4300-A703-D455220C256B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="2409825"/>
+          <a:ext cx="9047619" cy="5038095"/>
+          <a:chOff x="0" y="2409825"/>
+          <a:chExt cx="9047619" cy="5038095"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406F9F34-B04A-42E1-94DE-28323C4E2CC2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="2409825"/>
+            <a:ext cx="9047619" cy="5038095"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCACC7E5-F70F-4C48-B9FF-1D624C0AF72F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="38100" y="5448300"/>
+            <a:ext cx="8991600" cy="1962150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00">
+              <a:alpha val="20000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Folded Corner 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FA5CB2-A060-464C-A976-7C0380135B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="3209925"/>
+          <a:ext cx="9067800" cy="4714875"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10221"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="de-DE" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>十年生死两茫茫，不思量，自难忘</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="de-DE" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Cell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     - only have simple linear addition, therefore not easy to lose long term info</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2) Gates</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     - f (forget gate): control whether to forget previous cell state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     - i (input gate): control whether to input previous h state to next cell state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     - g (input): control how much we would like to input previous h state into next cell state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     - o (output gate): control whether to use previous h state in the output for next h state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3) Get good empirical result. Did not see solid mathematics support.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1800" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4) Check Andrej's blog to gain more intuition and explanation of LSTM</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>93948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0965039-A6F8-4DA0-B546-3BB68DBCD7D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1057275"/>
+          <a:ext cx="10400000" cy="10419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50516B3-7828-4CC6-AD87-FA94997FF294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="3524250"/>
+          <a:ext cx="10125075" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="20000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560457</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>56758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3573DD8C-9B4B-43D0-9C4D-4FF82A7067E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12115800"/>
+          <a:ext cx="12142857" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>303755</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AFD41F-3554-4149-BE58-F7CC9A4E9233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12668250" y="11849100"/>
+          <a:ext cx="8361905" cy="5238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>398899</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>122534</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661B5142-AFA0-4210-B3AE-C507BDEE0534}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10696575" y="990600"/>
+          <a:ext cx="9209524" cy="10323809"/>
+          <a:chOff x="10696575" y="990600"/>
+          <a:chExt cx="9209524" cy="10323809"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD6A24E-813E-4209-BF1C-BA9311FFE295}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10696575" y="990600"/>
+            <a:ext cx="9209524" cy="10323809"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD30B8C1-39DC-41CF-9135-1ABFA312E425}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11191876" y="10134600"/>
+            <a:ext cx="8096250" cy="1076325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00">
+              <a:alpha val="20000"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22254,8 +23525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22767,4 +24038,81 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH46" sqref="AH46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A42" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>